--- a/spec/models/ASW/Eng/GsSys/ASMod/AirMod/ASMod_VolEff/interfaceASMod_VolEff.xlsx
+++ b/spec/models/ASW/Eng/GsSys/ASMod/AirMod/ASMod_VolEff/interfaceASMod_VolEff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\T3NSE\trunk\spec\model\swCore\ASW\Eng\GsSys\ASMod\AirMod\ASMod_VolEff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T3\spec\model\swCore\ASW\Eng\GsSys\ASMod\AirMod\ASMod_VolEff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB03D4-1454-4272-B58D-DFD51F9A1207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD274F28-5003-4347-98B5-5D3A4C102D69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -529,18 +529,6 @@
     <t>State_uint8</t>
   </si>
   <si>
-    <t>Epm_numCyl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real number of cylinder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>State_uint8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dynamically corrected fresh air mass per cylinder
 upstream of the intake manifold</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -563,6 +551,13 @@
   </si>
   <si>
     <t>ASMod_mAirPerCylCor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine cylinder number</t>
+  </si>
+  <si>
+    <t>Epm_numCyl_C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1415,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1574,25 +1569,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35">
-        <v>255</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="G7" s="35"/>
       <c r="H7" s="24"/>
     </row>
   </sheetData>
@@ -1610,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1706,7 +1689,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="31">
         <v>0</v>
@@ -1718,10 +1701,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H4" s="27">
         <v>0</v>
@@ -1867,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2213,7 +2196,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="31">
         <v>0</v>
@@ -2225,7 +2208,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>48</v>
@@ -2236,6 +2219,30 @@
       <c r="I14" s="35" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0</v>
+      </c>
+      <c r="C15" s="35">
+        <v>255</v>
+      </c>
+      <c r="D15" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="31">
+        <v>4</v>
+      </c>
+      <c r="I15" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2365,7 +2372,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
